--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value872.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value872.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187441635406618</v>
+        <v>1.132262229919434</v>
       </c>
       <c r="B1">
-        <v>2.581980272059857</v>
+        <v>3.190351009368896</v>
       </c>
       <c r="C1">
-        <v>3.873273727814893</v>
+        <v>2.608749628067017</v>
       </c>
       <c r="D1">
-        <v>2.747167716481828</v>
+        <v>2.398351907730103</v>
       </c>
       <c r="E1">
-        <v>1.143577394841786</v>
+        <v>1.915135145187378</v>
       </c>
     </row>
   </sheetData>
